--- a/RUDN/Importance/Varible_class_in_Northern America.xlsx
+++ b/RUDN/Importance/Varible_class_in_Northern America.xlsx
@@ -14,9 +14,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>Forest area (sq. km)</t>
+    <t>Birth rate, crude (per 1,000 people)</t>
+  </si>
+  <si>
+    <t>PPP conversion factor, GDP (LCU per international $)</t>
+  </si>
+  <si>
+    <t>Fertility rate, total (births per woman)</t>
+  </si>
+  <si>
+    <t>Government expenditure on education, total (% of GDP)</t>
+  </si>
+  <si>
+    <t>CO2 emissions (kg per PPP $ of GDP)</t>
   </si>
 </sst>
 </file>
@@ -374,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -390,7 +402,39 @@
         <v>0</v>
       </c>
       <c r="B2">
+        <v>0.8484848737716675</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
         <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.06060606241226196</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.03030303120613098</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0.03030303120613098</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0.03030303120613098</v>
       </c>
     </row>
   </sheetData>
